--- a/program_directory/interpreterAccounting/万科A：2017年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/万科A：2017年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="250">
   <si>
     <t>土地使用权</t>
   </si>
@@ -517,9 +517,117 @@
     <t>109,378,786,070.86</t>
   </si>
   <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>1,165,346,917,804.55</t>
+  </si>
+  <si>
+    <t>830,674,213,924.14</t>
+  </si>
+  <si>
     <t>负债及股东权益</t>
   </si>
   <si>
+    <t>流动负债：</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>16,108,858,651.31</t>
+  </si>
+  <si>
+    <t>16,576,589,202.38</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>1,019,940,196.03</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>3,330,183,222.91</t>
+  </si>
+  <si>
+    <t>3,603,839,089.85</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>173,439,402,739.67</t>
+  </si>
+  <si>
+    <t>138,047,562,476.06</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>407,705,939,864.83</t>
+  </si>
+  <si>
+    <t>274,645,554,496.88</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>4,930,413,960.98</t>
+  </si>
+  <si>
+    <t>3,839,926,643.43</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>10,774,906,265.56</t>
+  </si>
+  <si>
+    <t>9,553,084,094.38</t>
+  </si>
+  <si>
+    <t>应付利息</t>
+  </si>
+  <si>
+    <t>995,144,331.41</t>
+  </si>
+  <si>
+    <t>378,374,906.63</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>182,886,802,898.36</t>
+  </si>
+  <si>
+    <t>106,580,257,219.71</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>46,163,837,744.75</t>
+  </si>
+  <si>
+    <t>26,773,297,333.75</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>847,355,429,875.81</t>
+  </si>
+  <si>
+    <t>579,998,485,463.07</t>
+  </si>
+  <si>
     <t>非流动负债：</t>
   </si>
   <si>
@@ -659,12 +767,6 @@
   </si>
   <si>
     <t>负债和股东权益总计</t>
-  </si>
-  <si>
-    <t>1,165,346,917,804.55</t>
-  </si>
-  <si>
-    <t>830,674,213,924.14</t>
   </si>
 </sst>
 </file>
@@ -672,45 +774,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -724,6 +796,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -731,15 +818,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -755,18 +843,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,9 +887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,11 +902,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,27 +931,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -839,13 +941,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,25 +1091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,103 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,6 +1132,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1042,20 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,204 +1226,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1886,7 +1988,7 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2091,10 +2193,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -2406,32 +2508,29 @@
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="1">
-        <v>28</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2440,7 +2539,7 @@
         <v>171</v>
       </c>
       <c r="B27" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>172</v>
@@ -2454,137 +2553,140 @@
         <v>174</v>
       </c>
       <c r="B28" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="1">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="1">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="1">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="1">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="1">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>189</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B34" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B35" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B36" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="1">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B38" s="1">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2592,6 +2694,9 @@
       <c r="A39" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="B39" s="1">
+        <v>28</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>205</v>
       </c>
@@ -2603,6 +2708,9 @@
       <c r="A40" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="B40" s="1">
+        <v>29</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>208</v>
       </c>
@@ -2614,6 +2722,9 @@
       <c r="A41" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>211</v>
       </c>
@@ -2625,11 +2736,169 @@
       <c r="A42" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="B42" s="1">
+        <v>31</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="1">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="1">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="1">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" s="1">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" s="1">
+        <v>36</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
